--- a/codeOrama.xlsx
+++ b/codeOrama.xlsx
@@ -28,22 +28,22 @@
     <t>event_whengreaterthan LOUDNESS 10</t>
   </si>
   <si>
+    <t>event_whenkeypressed space</t>
+  </si>
+  <si>
+    <t>event_whengreaterthan TIMER 20</t>
+  </si>
+  <si>
+    <t>event_whenbackdropswitchesto backdrop1</t>
+  </si>
+  <si>
+    <t>event_whenflagclicked</t>
+  </si>
+  <si>
     <t>event_whenthisspriteclicked</t>
   </si>
   <si>
-    <t>event_whenbackdropswitchesto backdrop1</t>
-  </si>
-  <si>
     <t>event_whenbroadcastreceived Message A</t>
-  </si>
-  <si>
-    <t>event_whenkeypressed space</t>
-  </si>
-  <si>
-    <t>event_whengreaterthan TIMER 20</t>
-  </si>
-  <si>
-    <t>event_whenflagclicked</t>
   </si>
   <si>
     <t>'event_whenflagclicked' triggers 'Cat'
@@ -53,19 +53,19 @@
     <t>'event_whengreaterthan LOUDNESS 10' triggers 'Dog1'</t>
   </si>
   <si>
+    <t>'event_whenkeypressed space' triggers 'Dog1'</t>
+  </si>
+  <si>
+    <t>'event_whengreaterthan TIMER 20' triggers 'Dog1'</t>
+  </si>
+  <si>
+    <t>'event_whenbackdropswitchesto backdrop1' triggers 'Dog1'</t>
+  </si>
+  <si>
     <t>'event_whenthisspriteclicked' triggers 'Dog1'</t>
   </si>
   <si>
-    <t>'event_whenbackdropswitchesto backdrop1' triggers 'Dog1'</t>
-  </si>
-  <si>
     <t>'event_whenbroadcastreceived Message A' triggers 'Dog1'</t>
-  </si>
-  <si>
-    <t>'event_whenkeypressed space' triggers 'Dog1'</t>
-  </si>
-  <si>
-    <t>'event_whengreaterthan TIMER 20' triggers 'Dog1'</t>
   </si>
 </sst>
 </file>
@@ -601,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
@@ -613,7 +613,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
